--- a/Assignment1-guess-number/Iteration4/document/test-report.xlsx
+++ b/Assignment1-guess-number/Iteration4/document/test-report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{99DBDE99-DBC2-5845-8D08-4E51B8BBB2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F0A07382-15A9-A04A-919E-E88FD83ACB7A}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{99DBDE99-DBC2-5845-8D08-4E51B8BBB2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9FE78100-9168-D74D-A5D5-22F10B63725F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Student</t>
   </si>
@@ -72,116 +72,84 @@
     <t>BCPR280</t>
   </si>
   <si>
-    <t>test1 for range of secrent number</t>
-  </si>
-  <si>
-    <t>test 2 for range of secrent number</t>
-  </si>
-  <si>
-    <t>test 3 for guess result</t>
-  </si>
-  <si>
-    <t>test 4 for guess result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test 5 for guess result </t>
-  </si>
-  <si>
-    <t>You got it in 3 trials!</t>
-  </si>
-  <si>
-    <t>theGuessExtendedObject.secretNumber</t>
-  </si>
-  <si>
-    <t>theGuessExtendedObject.makeGuess</t>
-  </si>
-  <si>
-    <t>set secret number to 42, then make a guess 56, it should be return WARM</t>
-  </si>
-  <si>
-    <t>theGuessExtendedObject.makeGuess(43)</t>
-  </si>
-  <si>
-    <t>WARM</t>
-  </si>
-  <si>
-    <t>set secret number to 42, then make a guess 76, it should be return COOL</t>
-  </si>
-  <si>
-    <t>COOL</t>
-  </si>
-  <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>set secret number to 42, then make a guess 99, it should be return COLD</t>
-  </si>
-  <si>
-    <t>set secret number to 42, then make a guess 41, it should be return HOT</t>
-  </si>
-  <si>
-    <t>COLD</t>
-  </si>
-  <si>
-    <t>theGuessExtendedObject.makeGuess(99)</t>
-  </si>
-  <si>
-    <t>theGuessExtendedObject.makeGuess(41)</t>
-  </si>
-  <si>
-    <t>set secret number to 42, then make a guess 1,  make another guess 2, make a guess 42, it should be return "You got it in 3 trials!"</t>
-  </si>
-  <si>
-    <r>
-      <t>theGuessExtendedObject.makeGuess(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>theGuessExtendedObject.makeGuess(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);
-theGuessExtendedObject.makeGuess(2);
-expect(theGuessExtendedObject.makeGuess(42)).toBe('You got it in 3 trials!')</t>
-    </r>
+    <t>mankind lie 1</t>
+  </si>
+  <si>
+    <t>mankind lie 2</t>
+  </si>
+  <si>
+    <t>mankind lie 3</t>
+  </si>
+  <si>
+    <t>mankind lie 4</t>
+  </si>
+  <si>
+    <t>tryCount should be increased after getGuess</t>
+  </si>
+  <si>
+    <t>ComputerExtended.tryCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      let npc = new ComputerExtended()
+      let guess = 0
+      npc.refineCandidateList(guess, 'COLD')
+      guess = 99
+      npc.refineCandidateList(guess, 'COLD')
+      guess = 50
+      npc.refineCandidateList(guess, 'COLD')
+      expect(npc.isMankindLying()).toBe(true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      let npc = new ComputerExtended()
+      let guess = 0
+      npc.refineCandidateList(guess, 'WARM')
+      guess = 99
+      npc.refineCandidateList(guess, 'WARM')
+      expect(npc.isMankindLying()).toBe(true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    it("mankind lied", function () {
+      let npc = new ComputerExtended()
+      let guess = 0
+      npc.refineCandidateList(guess, 'COOL')
+      guess = 99
+      npc.refineCandidateList(guess, 'COOL')
+      expect(npc.isMankindLying()).toBe(true)
+    })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      let npc = new ComputerExtended()
+      let guess = 0
+      npc.refineCandidateList(guess, 'HOT')
+      guess = 99
+      npc.refineCandidateList(guess, 'HOT')
+      expect(npc.isMankindLying()).toBe(true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    let npc = new ComputerExtended()
+    expect(npc.tryCount == 0).toBe(true)
+    npc.getGuess()
+    expect(npc.tryCount == 1).toBe(true)</t>
+  </si>
+  <si>
+    <t>ComputerExtended.refineCandidateList
+ComputerExtended.isMankindLying</t>
+  </si>
+  <si>
+    <t>if 0 and 99 are COLD, the secret number must be in [40,59], so 50 must not be COLD</t>
+  </si>
+  <si>
+    <t>if 0 is COOL, the secret number must be in [20, 39], so 99 must be COLD, and it must not be COOL too</t>
+  </si>
+  <si>
+    <t>if 0 is HOT, then 99 must not be HOT too</t>
+  </si>
+  <si>
+    <t>if 0 is WARM, then 99 must not be WARM too</t>
+  </si>
+  <si>
+    <t>make new guess the tryCount should be inreased by one</t>
   </si>
 </sst>
 </file>
@@ -192,7 +160,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,13 +189,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF09885A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,20 +210,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,205 +512,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:7" ht="160" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
